--- a/data/trans_dic/P12A1_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P12A1_3_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna limitación  &gt;=60 años</t>
+          <t>Población con alguna limitación  &gt;=60 años (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>55,09%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>56,43%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>55,87%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>62,43%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>81,78%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>52,33%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>59,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>71,95%</t>
+          <t>11,25%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>54,36%</t>
+          <t>9,67%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>11,03%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4,32%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>12,13%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29,56; 76,75</t>
+          <t>1,54; 16,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,27; 77,42</t>
+          <t>4,86; 26,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>32,34; 76,63</t>
+          <t>2,37; 21,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>43,21; 78,72</t>
+          <t>4,74; 26,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>62,47; 95,78</t>
+          <t>4,6; 27,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,5; 73,56</t>
+          <t>2,36; 19,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>45,22; 73,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>56,61; 87,51</t>
+          <t>3,98; 25,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>38,4; 68,55</t>
+          <t>4,29; 18,56</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>5,66; 18,3</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1,32; 10,22</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>6,36; 21,63</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>40,66%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>30,73%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>29,09%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>41,11%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>47,89%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>38,6%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>40,87%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>37,99%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>33,22%</t>
+          <t>5,58%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4,82%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4,81%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>8,01%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,15; 57,56</t>
+          <t>3,54; 11,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,24; 45,38</t>
+          <t>3,33; 11,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,54; 46,33</t>
+          <t>3,28; 10,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,93; 61,82</t>
+          <t>5,2; 15,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,8; 65,21</t>
+          <t>1,81; 7,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,52; 58,13</t>
+          <t>1,11; 6,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,72; 53,25</t>
+          <t>1,11; 6,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,97; 50,5</t>
+          <t>3,47; 12,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,0; 47,9</t>
+          <t>3,43; 8,32</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2,94; 7,33</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2,95; 7,31</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5,32; 12,15</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>31,35%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>36,54%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>58,98%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>39,96%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>52,89%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>41,77%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>35,37%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>45,87%</t>
+          <t>3,68%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,69%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4,43%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4,55%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,3; 43,97</t>
+          <t>0,61; 6,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,12; 54,15</t>
+          <t>1,8; 9,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,58; 61,2</t>
+          <t>1,45; 10,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>39,13; 76,5</t>
+          <t>1,38; 9,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,37; 62,65</t>
+          <t>1,95; 9,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>33,97; 69,79</t>
+          <t>1,02; 6,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,45; 55,77</t>
+          <t>1,79; 8,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>20,98; 49,46</t>
+          <t>2,21; 9,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>30,36; 61,59</t>
+          <t>1,91; 6,59</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1,97; 6,7</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2,55; 7,56</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2,47; 7,67</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>39,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>36,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>36,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>51,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>57,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>45,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>45,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>46,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>40,51%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>27,76; 51,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25,64; 46,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24,12; 49,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>41,52; 62,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,47; 71,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,81; 57,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,86; 53,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,95; 57,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,67; 49,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5,15%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6,91%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6,28%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8,24%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5,63%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3,71%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,99%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6,91%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5,41%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>5,23%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4,6%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7,56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3,16; 8,2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4,51; 10,24</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3,93; 9,39</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5,82; 12,16</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3,45; 8,66</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2,13; 5,74</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1,67; 4,96</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4,35; 10,64</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3,9; 7,48</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>3,8; 7,06</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>3,25; 6,25</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5,57; 10,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con alguna limitación  &gt;=60 años (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7618</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14122</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>10220</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>23437</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>18617</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>10240</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>24067</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>26235</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>24363</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>10220</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>47505</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1985; 21868</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5121; 28338</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2708; 23974</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8428; 46493</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6557; 39221</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2725; 22621</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8506; 54478</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>11641; 50372</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>12506; 40425</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3131; 24180</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>24921; 84705</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>31044</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>25138</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>26172</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>47721</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>18877</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>11383</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11081</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>32464</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>49920</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>36521</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>37253</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>80185</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>15198; 50967</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>12516; 41608</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>13122; 43834</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>26716; 77743</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8387; 35810</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4239; 23071</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4175; 22790</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>16912; 58753</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>30636; 74339</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>22249; 55520</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>22822; 56643</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>53285; 121615</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7198</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>13559</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>13154</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>14504</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>20804</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9566</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13551</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>19549</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>28002</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>23125</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>26705</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>34054</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2045; 20247</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5083; 27935</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3986; 29152</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4798; 33666</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8352; 39421</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3508; 21877</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5857; 27498</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8847; 36202</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14546; 50161</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>12356; 42020</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>15397; 45598</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>18474; 57400</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>45860</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>52820</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>49546</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>85663</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>58297</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>31189</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>24631</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>76080</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>104157</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>84009</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>74178</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>161743</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>28197; 73093</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>34497; 78256</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>30986; 74109</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>60498; 126447</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>35668; 89677</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>17942; 48272</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>13808; 40939</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>47866; 117079</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>75116; 144183</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>61019; 113295</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>52478; 100853</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>119235; 217467</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
